--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Code system for DHIS2 'Sample quality' option set.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -380,23 +383,25 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>13</v>
@@ -404,48 +409,48 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -463,39 +468,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06T14:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:12:01+00:00</t>
+    <t>2025-01-06T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:45:14+00:00</t>
+    <t>2025-01-07T09:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:00:06+00:00</t>
+    <t>2025-01-07T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:54:37+00:00</t>
+    <t>2025-01-07T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T10:22:04+00:00</t>
+    <t>2025-01-08T13:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T13:44:33+00:00</t>
+    <t>2025-01-08T14:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:12:29+00:00</t>
+    <t>2025-01-08T14:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:51:23+00:00</t>
+    <t>2025-01-08T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:06:16+00:00</t>
+    <t>2025-01-09T10:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T10:44:33+00:00</t>
+    <t>2025-01-09T11:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T11:45:34+00:00</t>
+    <t>2025-01-09T13:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T13:22:59+00:00</t>
+    <t>2025-01-20T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-TBLABSampleQualityCS.xlsx
+++ b/CodeSystem-TBLABSampleQualityCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T11:09:19+00:00</t>
+    <t>2025-02-10T09:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
